--- a/Danh_sach_hoc_vien_tham_gia_18_06_2025.xlsx
+++ b/Danh_sach_hoc_vien_tham_gia_18_06_2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Danh sách học viên tham gia khóa học</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>13/06/2025 15:01:21</t>
+  </si>
+  <si>
+    <t>0963129099</t>
   </si>
   <si>
     <t>- LỊCH SỬ &amp; ĐỊA LÍ 6 (PHẦN ĐỊA LÍ)
@@ -77,6 +80,9 @@
     <t>13/06/2025 15:00:10</t>
   </si>
   <si>
+    <t>0398992541</t>
+  </si>
+  <si>
     <t>Trương Ngọc Mai</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
     <t>13/06/2025 14:59:29</t>
   </si>
   <si>
+    <t>0983478388</t>
+  </si>
+  <si>
     <t>Lò Hoàng Việt</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
     <t>13/06/2025 14:57:41</t>
   </si>
   <si>
+    <t>0913559137</t>
+  </si>
+  <si>
     <t>Cao Thị Thùy Linh</t>
   </si>
   <si>
@@ -120,8 +132,7 @@
   </si>
   <si>
     <t>- LỊCH SỬ &amp; ĐỊA LÍ 6 (PHẦN ĐỊA LÍ)
-- LỊCH SỬ &amp; ĐỊA LÍ 7 (PHẦN ĐỊA LÍ)
-- LỊCH SỬ &amp; ĐỊA LÍ 8 (PHẦN ĐỊA LÍ)</t>
+- LỊCH SỬ &amp; ĐỊA LÍ 7 (PHẦN ĐỊA LÍ)</t>
   </si>
 </sst>
 </file>
@@ -583,12 +594,14 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -596,23 +609,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -620,23 +635,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,23 +661,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -668,25 +687,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -694,25 +713,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
